--- a/urdf_refine(mustread)！.xlsx
+++ b/urdf_refine(mustread)！.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,42 +60,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_1FABB83D51D7494E9F8179027B9E1094"/>
+        <xdr:cNvPr id="5" name="ID_5C1B6181500A4EAC9E08262F65AAD256"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2444115" y="80010"/>
-          <a:ext cx="1857375" cy="3218180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="ID_5C1B6181500A4EAC9E08262F65AAD256"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -124,7 +95,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -153,7 +124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -182,7 +153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -211,7 +182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -240,7 +211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -269,7 +240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -298,7 +269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -327,7 +298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -356,7 +327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -385,7 +356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -414,7 +385,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -437,187 +408,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="ID_6D3B65C8E0194A66B9B3BC93D5BA8E26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6588760" y="4734560"/>
-          <a:ext cx="4067175" cy="6705600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="ID_4FAF0C96B3A447CCAF815983E6F93B1B"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6569710" y="8173085"/>
-          <a:ext cx="4143375" cy="7086600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="ID_73DCF52A318B454F904E86D190E805B4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6569710" y="11861800"/>
-          <a:ext cx="4267200" cy="5724525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="ID_C9C70A38E76549A2B665936A6316C4DD"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6569710" y="14758035"/>
-          <a:ext cx="4038600" cy="6877050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="ID_04E541C0CE9548EF9C4D32182812DCA0"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6569710" y="18430875"/>
-          <a:ext cx="4238625" cy="6153150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="ID_ED9B58248A6C4E079C487C52EBD1B7BF"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6569710" y="21563965"/>
-          <a:ext cx="3810000" cy="5391150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="ID_0A5D01F1CB4A430AA025BB64D2F1FC89"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -646,7 +443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -675,7 +472,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -704,7 +501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -733,7 +530,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -762,7 +559,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -771,6 +568,209 @@
         <a:xfrm>
           <a:off x="2377440" y="23071455"/>
           <a:ext cx="4181475" cy="7010400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_483A3BBC7BA24C49911604E5FF7CDE8B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2377440" y="171450"/>
+          <a:ext cx="4276725" cy="7381875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_D9F883319EEA4B3EB25567CC7BFC93AC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="4616450"/>
+          <a:ext cx="4086225" cy="7286625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_14A3C727F5D746F6BA013783173998C2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="8462010"/>
+          <a:ext cx="4057650" cy="7486650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_420F12B9277D489F8CACE29C24B59084"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="12440285"/>
+          <a:ext cx="4324350" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_FDC7DC9371024F3DB2927147ED76FBFE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="16287750"/>
+          <a:ext cx="4248150" cy="7105650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_DF46A40BA2354916B836AFB7A827E8C5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="19960590"/>
+          <a:ext cx="4219575" cy="7343775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_40C46EA848E74B90B29DA13A730DA88A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569710" y="23865205"/>
+          <a:ext cx="4219575" cy="7419975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,6 +801,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注意事项：</t>
     </r>
     <r>
@@ -2005,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2040,14 +2047,14 @@
         <v>=DISPIMG("ID_1C0CE77E68E9425B958E1EDF86C95E6C",1)</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.DISPIMG("ID_1FABB83D51D7494E9F8179027B9E1094",1)</f>
-        <v>=DISPIMG("ID_1FABB83D51D7494E9F8179027B9E1094",1)</v>
+        <f>_xlfn.DISPIMG("ID_483A3BBC7BA24C49911604E5FF7CDE8B",1)</f>
+        <v>=DISPIMG("ID_483A3BBC7BA24C49911604E5FF7CDE8B",1)</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="298.35" spans="1:6">
+    <row r="3" ht="302.8" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2067,11 +2074,11 @@
         <v>=DISPIMG("ID_5C1B6181500A4EAC9E08262F65AAD256",1)</v>
       </c>
       <c r="F3" t="str">
-        <f>_xlfn.DISPIMG("ID_6D3B65C8E0194A66B9B3BC93D5BA8E26",1)</f>
-        <v>=DISPIMG("ID_6D3B65C8E0194A66B9B3BC93D5BA8E26",1)</v>
+        <f>_xlfn.DISPIMG("ID_D9F883319EEA4B3EB25567CC7BFC93AC",1)</f>
+        <v>=DISPIMG("ID_D9F883319EEA4B3EB25567CC7BFC93AC",1)</v>
       </c>
     </row>
-    <row r="4" ht="290.45" spans="1:6">
+    <row r="4" ht="313.25" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2091,11 +2098,11 @@
         <v>=DISPIMG("ID_988EFCA75EA34A7E8A7768644050118C",1)</v>
       </c>
       <c r="F4" t="str">
-        <f>_xlfn.DISPIMG("ID_4FAF0C96B3A447CCAF815983E6F93B1B",1)</f>
-        <v>=DISPIMG("ID_4FAF0C96B3A447CCAF815983E6F93B1B",1)</v>
+        <f>_xlfn.DISPIMG("ID_14A3C727F5D746F6BA013783173998C2",1)</f>
+        <v>=DISPIMG("ID_14A3C727F5D746F6BA013783173998C2",1)</v>
       </c>
     </row>
-    <row r="5" ht="267.7" spans="1:6">
+    <row r="5" ht="302.95" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2115,8 +2122,8 @@
         <v>=DISPIMG("ID_CE7CF34695F348FDA5A8E36F562161E4",1)</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.DISPIMG("ID_73DCF52A318B454F904E86D190E805B4",1)</f>
-        <v>=DISPIMG("ID_73DCF52A318B454F904E86D190E805B4",1)</v>
+        <f>_xlfn.DISPIMG("ID_420F12B9277D489F8CACE29C24B59084",1)</f>
+        <v>=DISPIMG("ID_420F12B9277D489F8CACE29C24B59084",1)</v>
       </c>
     </row>
     <row r="6" ht="289.2" spans="1:6">
@@ -2139,8 +2146,8 @@
         <v>=DISPIMG("ID_09F356C7827047E58FE56CFB3C1FC97D",1)</v>
       </c>
       <c r="F6" t="str">
-        <f>_xlfn.DISPIMG("ID_C9C70A38E76549A2B665936A6316C4DD",1)</f>
-        <v>=DISPIMG("ID_C9C70A38E76549A2B665936A6316C4DD",1)</v>
+        <f>_xlfn.DISPIMG("ID_FDC7DC9371024F3DB2927147ED76FBFE",1)</f>
+        <v>=DISPIMG("ID_FDC7DC9371024F3DB2927147ED76FBFE",1)</v>
       </c>
     </row>
     <row r="7" ht="307.45" spans="1:6">
@@ -2163,8 +2170,8 @@
         <v>=DISPIMG("ID_4BC1ECEBBFE74340B86422D74D7C38FF",1)</v>
       </c>
       <c r="F7" t="str">
-        <f>_xlfn.DISPIMG("ID_04E541C0CE9548EF9C4D32182812DCA0",1)</f>
-        <v>=DISPIMG("ID_04E541C0CE9548EF9C4D32182812DCA0",1)</v>
+        <f>_xlfn.DISPIMG("ID_DF46A40BA2354916B836AFB7A827E8C5",1)</f>
+        <v>=DISPIMG("ID_DF46A40BA2354916B836AFB7A827E8C5",1)</v>
       </c>
     </row>
     <row r="8" ht="312.4" spans="1:6">
@@ -2187,8 +2194,8 @@
         <v>=DISPIMG("ID_8553DB3B3BCC4D14BC448A7B72F7F42B",1)</v>
       </c>
       <c r="F8" t="str">
-        <f>_xlfn.DISPIMG("ID_ED9B58248A6C4E079C487C52EBD1B7BF",1)</f>
-        <v>=DISPIMG("ID_ED9B58248A6C4E079C487C52EBD1B7BF",1)</v>
+        <f>_xlfn.DISPIMG("ID_40C46EA848E74B90B29DA13A730DA88A",1)</f>
+        <v>=DISPIMG("ID_40C46EA848E74B90B29DA13A730DA88A",1)</v>
       </c>
     </row>
   </sheetData>
